--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,8 +603,12 @@
       <c r="D6" s="7">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
@@ -619,7 +623,9 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="1"/>
       <c r="H7" s="11"/>
@@ -856,6 +862,48 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -870,48 +918,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -49,6 +49,21 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+с вычетом на английский</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EX
 с вычетом на английский</t>
         </r>
       </text>
@@ -218,10 +233,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,7 +527,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +561,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -567,14 +582,22 @@
       <c r="H3" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="7"/>
+      <c r="I3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8</v>
+      </c>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -587,9 +610,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
     </row>
@@ -600,17 +627,21 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H6" s="10">
+        <v>6</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="9"/>
       <c r="K6" s="1"/>
@@ -622,13 +653,15 @@
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9"/>
       <c r="K7" s="1"/>
@@ -651,7 +684,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -667,7 +700,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -726,7 +759,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -742,7 +775,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
@@ -801,7 +834,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -817,7 +850,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -835,33 +868,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -876,48 +951,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -65,6 +65,30 @@
           </rPr>
           <t>Anna Sharuntsova.EX
 с вычетом на английский</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+с вычетом часа на английский (опоздала на полчаса)</t>
         </r>
       </text>
     </comment>
@@ -233,10 +257,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +551,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +585,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -597,7 +621,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -627,23 +651,27 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>6</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J6" s="9">
+        <v>7</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
@@ -653,16 +681,18 @@
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="1">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="9"/>
@@ -684,7 +714,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -700,7 +730,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -759,7 +789,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -775,7 +805,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
@@ -834,7 +864,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -850,7 +880,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -868,33 +898,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -909,48 +981,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -89,6 +89,31 @@
           </rPr>
           <t xml:space="preserve">
 с вычетом часа на английский (опоздала на полчаса)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12 часов в счет прошедшей недели
+</t>
         </r>
       </text>
     </comment>
@@ -257,10 +282,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +576,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +610,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -621,7 +646,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -651,19 +676,19 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -672,29 +697,37 @@
       <c r="J6" s="9">
         <v>7</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="8"/>
+      <c r="K6" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="L6" s="9">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1">
         <v>0.77777777777777779</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
     </row>
@@ -714,7 +747,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -730,7 +763,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -789,7 +822,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -805,7 +838,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
@@ -864,7 +897,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -880,7 +913,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -898,33 +931,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -939,48 +1014,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,7 +577,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,10 +751,18 @@
       <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4.5</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
@@ -764,9 +773,13 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
       <c r="H12" s="7"/>
@@ -780,8 +793,12 @@
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.5</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9"/>
       <c r="G14" s="1"/>
@@ -794,8 +811,10 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9"/>
       <c r="G15" s="1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -577,7 +576,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,9 +762,13 @@
       <c r="F11" s="7">
         <v>4.5</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.625</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="1"/>
       <c r="L11" s="7"/>
@@ -781,9 +784,13 @@
         <v>0.8125</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="1"/>
       <c r="L12" s="7"/>
@@ -799,10 +806,18 @@
       <c r="D14" s="7">
         <v>6.5</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H14" s="9">
+        <v>6.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="9"/>
       <c r="K14" s="6"/>
@@ -815,9 +830,13 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="1"/>
       <c r="J15" s="9"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -265,7 +272,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -286,6 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +586,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,11 +775,15 @@
       <c r="G11" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="12">
+        <v>6.5</v>
+      </c>
       <c r="I11" s="1">
         <v>0.625</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>3.5</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
@@ -787,7 +801,7 @@
       <c r="G12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -803,14 +817,14 @@
       <c r="C14" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10">
         <v>6.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="7">
-        <v>4.5</v>
+      <c r="F14" s="10">
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <v>0.55208333333333337</v>
@@ -818,8 +832,12 @@
       <c r="H14" s="9">
         <v>6.5</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J14" s="9">
+        <v>7</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
@@ -829,16 +847,18 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="1"/>
       <c r="L15" s="9"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,9 @@
       <c r="J11" s="7">
         <v>3.5</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
     </row>
@@ -838,9 +840,15 @@
       <c r="J14" s="9">
         <v>7</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="8"/>
+      <c r="K14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L14" s="9">
+        <v>7</v>
+      </c>
+      <c r="M14" s="8">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
@@ -860,7 +868,9 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>0.75</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
     </row>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,10 +893,18 @@
       <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4.5</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
@@ -907,9 +915,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="1"/>
       <c r="H20" s="7"/>
@@ -923,8 +935,12 @@
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1"/>
@@ -937,7 +953,9 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="9"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -289,10 +289,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -656,7 +656,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -686,19 +686,19 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -722,15 +722,15 @@
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1">
         <v>0.77777777777777779</v>
       </c>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -791,7 +791,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -819,13 +819,13 @@
       <c r="C14" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>6.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>4</v>
       </c>
       <c r="G14" s="1">
@@ -855,11 +855,11 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -905,16 +905,28 @@
       <c r="F19" s="7">
         <v>4.5</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="7"/>
+      <c r="G19" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5</v>
+      </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
@@ -923,11 +935,17 @@
         <v>0.8125</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
     </row>
@@ -941,8 +959,12 @@
       <c r="D22" s="9">
         <v>4</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5.5</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
@@ -957,7 +979,9 @@
         <v>0.75</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.81944444444444453</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>
@@ -983,7 +1007,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -999,7 +1023,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -1017,33 +1041,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -1058,48 +1124,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -289,10 +289,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
@@ -586,7 +586,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H22" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -656,7 +656,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -686,19 +686,19 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -722,15 +722,15 @@
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1">
         <v>0.77777777777777779</v>
       </c>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -791,7 +791,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -819,13 +819,13 @@
       <c r="C14" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>6.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>4</v>
       </c>
       <c r="G14" s="1">
@@ -855,11 +855,11 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -926,7 +926,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
@@ -965,8 +965,12 @@
       <c r="F22" s="9">
         <v>5.5</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="9"/>
       <c r="K22" s="5"/>
@@ -983,7 +987,9 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9"/>
@@ -1007,7 +1013,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -1023,7 +1029,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -1041,33 +1047,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -1082,48 +1130,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,10 +971,18 @@
       <c r="H22" s="9">
         <v>5</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="9"/>
+      <c r="I22" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J22" s="9">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5</v>
+      </c>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -991,9 +999,13 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="8"/>
     </row>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -114,6 +114,30 @@
           <t xml:space="preserve">
 12 часов в счет прошедшей недели
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+с учетом праздников и всяких отвлеканий</t>
         </r>
       </text>
     </comment>
@@ -240,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,6 +287,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -272,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -289,13 +339,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +642,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M23"/>
+      <selection activeCell="M27" sqref="M27:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +676,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -656,7 +712,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -686,19 +742,19 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -722,15 +778,15 @@
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1">
         <v>0.77777777777777779</v>
       </c>
@@ -757,7 +813,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -791,7 +847,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -819,13 +875,13 @@
       <c r="C14" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>6.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>4</v>
       </c>
       <c r="G14" s="1">
@@ -855,11 +911,11 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -890,7 +946,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -926,7 +982,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
@@ -983,7 +1039,9 @@
       <c r="L22" s="9">
         <v>5</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
@@ -1025,32 +1083,60 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="F27" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="H27" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="M27" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="1"/>
+      <c r="E28" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="1">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="J28" s="7"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="8"/>
     </row>
@@ -1059,33 +1145,83 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="F30" s="9">
+        <v>7.5</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="1">
+        <v>0.78125</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -1100,48 +1236,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:M28"/>
+      <selection activeCell="J30" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,15 +798,25 @@
       <c r="M7" s="8"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>43507</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>43508</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>43509</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>43510</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>43511</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4" t="s">
         <v>0</v>
@@ -931,15 +941,25 @@
       <c r="M15" s="8"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>43514</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>43515</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>43516</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>43517</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>43518</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4" t="s">
         <v>0</v>
@@ -1068,15 +1088,25 @@
       <c r="M23" s="8"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>43521</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>43521</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>43523</v>
+      </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>43524</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>43525</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4" t="s">
         <v>0</v>
@@ -1154,10 +1184,18 @@
       <c r="F30" s="9">
         <v>7.5</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="9"/>
+      <c r="G30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="J30" s="9">
+        <v>4.5</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="11"/>
       <c r="M30" s="8"/>
@@ -1170,9 +1208,13 @@
         <v>0.78125</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="H31" s="11"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>0.73611111111111116</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
       <c r="L31" s="11"/>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J31"/>
+      <selection activeCell="M30" sqref="M30:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,9 +1196,15 @@
       <c r="J30" s="9">
         <v>4.5</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="L30" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="M30" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
@@ -1216,7 +1222,9 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="J31" s="9"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="L31" s="11"/>
       <c r="M31" s="8"/>
     </row>

--- a/04.02-01.03.xlsx
+++ b/04.02-01.03.xlsx
@@ -339,19 +339,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30:M31"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -712,7 +712,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -742,19 +742,19 @@
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -778,15 +778,15 @@
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1">
         <v>0.77777777777777779</v>
       </c>
@@ -823,7 +823,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -841,7 +841,7 @@
       <c r="G11" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="14">
         <v>6.5</v>
       </c>
       <c r="I11" s="1">
@@ -857,7 +857,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="G12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -885,13 +885,13 @@
       <c r="C14" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>6.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>4</v>
       </c>
       <c r="G14" s="1">
@@ -921,11 +921,11 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -1002,7 +1002,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="8">
-        <v>25</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -1123,13 +1123,13 @@
       <c r="E27" s="1">
         <v>0.46875</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>7.5</v>
       </c>
       <c r="G27" s="1">
         <v>0.46875</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>8.5</v>
       </c>
       <c r="I27" s="1">
@@ -1149,17 +1149,17 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1">
         <v>0.78125</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>0</v>
       </c>
       <c r="E30" s="1">
@@ -1187,7 +1187,7 @@
       <c r="G30" s="1">
         <v>0.5</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>7.5</v>
       </c>
       <c r="I30" s="1">
@@ -1199,7 +1199,7 @@
       <c r="K30" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>5.5</v>
       </c>
       <c r="M30" s="8">
@@ -1209,7 +1209,7 @@
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1">
         <v>0.78125</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="G31" s="1">
         <v>0.8125</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1">
         <v>0.73611111111111116</v>
       </c>
@@ -1225,11 +1225,53 @@
       <c r="K31" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -1244,48 +1286,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
